--- a/Portal_Data_0306.xlsx
+++ b/Portal_Data_0306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10197378\Desktop\CPI\Dashboard\Github_Files\CPI_Bahrain-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF084121-B219-4AC0-A957-B2AB1F5833B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5600E7-D17E-4D9F-B662-5DF561340D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,8 +625,8 @@
   <dimension ref="A1:AG222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N25" sqref="N25"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,6 +1384,12 @@
       <c r="U8">
         <v>274.40895890000002</v>
       </c>
+      <c r="V8">
+        <v>276.8</v>
+      </c>
+      <c r="W8">
+        <v>277.39999999999998</v>
+      </c>
       <c r="X8">
         <v>277.8</v>
       </c>
@@ -2963,6 +2969,12 @@
       <c r="U25">
         <v>313.12704830000001</v>
       </c>
+      <c r="V25">
+        <v>315.39999999999998</v>
+      </c>
+      <c r="W25">
+        <v>316.89999999999998</v>
+      </c>
       <c r="X25">
         <v>316.8</v>
       </c>
@@ -4542,6 +4554,12 @@
       <c r="U42">
         <v>264.10000000000002</v>
       </c>
+      <c r="V42">
+        <v>264.10000000000002</v>
+      </c>
+      <c r="W42">
+        <v>264.10000000000002</v>
+      </c>
       <c r="X42">
         <v>264.10000000000002</v>
       </c>
@@ -6121,6 +6139,12 @@
       <c r="U59">
         <v>415.43700280000002</v>
       </c>
+      <c r="V59">
+        <v>417.1</v>
+      </c>
+      <c r="W59">
+        <v>416.5</v>
+      </c>
       <c r="X59">
         <v>417.7</v>
       </c>
@@ -7700,6 +7724,12 @@
       <c r="U76">
         <v>176.45001439999999</v>
       </c>
+      <c r="V76">
+        <v>176.6</v>
+      </c>
+      <c r="W76">
+        <v>176.7</v>
+      </c>
       <c r="X76">
         <v>177.9</v>
       </c>
@@ -9279,6 +9309,12 @@
       <c r="U93">
         <v>352.3796284</v>
       </c>
+      <c r="V93">
+        <v>355.2</v>
+      </c>
+      <c r="W93">
+        <v>355.5</v>
+      </c>
       <c r="X93">
         <v>355.8</v>
       </c>
@@ -10858,6 +10894,12 @@
       <c r="U110">
         <v>336.7622303</v>
       </c>
+      <c r="V110">
+        <v>337.6</v>
+      </c>
+      <c r="W110">
+        <v>337.6</v>
+      </c>
       <c r="X110">
         <v>339</v>
       </c>
@@ -12437,6 +12479,12 @@
       <c r="U127">
         <v>189.142079</v>
       </c>
+      <c r="V127">
+        <v>202.9</v>
+      </c>
+      <c r="W127">
+        <v>202.9</v>
+      </c>
       <c r="X127">
         <v>203.6</v>
       </c>
@@ -14016,6 +14064,12 @@
       <c r="U144">
         <v>83.048897060000002</v>
       </c>
+      <c r="V144">
+        <v>83.3</v>
+      </c>
+      <c r="W144">
+        <v>83.3</v>
+      </c>
       <c r="X144">
         <v>83.3</v>
       </c>
@@ -15595,6 +15649,12 @@
       <c r="U161">
         <v>204.65417959999999</v>
       </c>
+      <c r="V161">
+        <v>204.9</v>
+      </c>
+      <c r="W161">
+        <v>205</v>
+      </c>
       <c r="X161">
         <v>204.8</v>
       </c>
@@ -17174,6 +17234,12 @@
       <c r="U178">
         <v>379.99551120000001</v>
       </c>
+      <c r="V178">
+        <v>380</v>
+      </c>
+      <c r="W178">
+        <v>380</v>
+      </c>
       <c r="X178">
         <v>380</v>
       </c>
@@ -18753,6 +18819,12 @@
       <c r="U195">
         <v>340.80958079999999</v>
       </c>
+      <c r="V195">
+        <v>342.8</v>
+      </c>
+      <c r="W195">
+        <v>342.8</v>
+      </c>
       <c r="X195">
         <v>343</v>
       </c>
@@ -20331,6 +20403,12 @@
       </c>
       <c r="U212">
         <v>288.86352419999997</v>
+      </c>
+      <c r="V212">
+        <v>290.3</v>
+      </c>
+      <c r="W212">
+        <v>290.3</v>
       </c>
       <c r="X212">
         <v>290.3</v>
